--- a/data_year/zb/住宿和餐饮业/连锁餐饮企业/按登记注册类型和行业分连锁餐饮企业统一配送商品购进额.xlsx
+++ b/data_year/zb/住宿和餐饮业/连锁餐饮企业/按登记注册类型和行业分连锁餐饮企业统一配送商品购进额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,7 +593,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -625,7 +625,7 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
-        <v>89.3</v>
+        <v>298.7571</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
@@ -633,1177 +633,1001 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.43831</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44.9607</v>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>27.26523</v>
+      </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1.10557</v>
+      </c>
       <c r="H3" t="n">
-        <v>1.1024</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>4.6828</v>
+      </c>
+      <c r="I3" t="n">
+        <v>88.23851999999999</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0.06927</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8.960599999999999</v>
+      </c>
+      <c r="M3" t="n">
+        <v>207.57376</v>
+      </c>
+      <c r="N3" t="n">
+        <v>153.21415</v>
+      </c>
       <c r="O3" t="n">
-        <v>67.43129999999999</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
+        <v>237.74917</v>
+      </c>
+      <c r="P3" t="n">
+        <v>27.26523</v>
+      </c>
       <c r="Q3" t="n">
-        <v>39.8871</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+        <v>93.51392</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.1313</v>
+      </c>
+      <c r="S3" t="n">
+        <v>19.62617</v>
+      </c>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>47.25908</v>
+      </c>
+      <c r="V3" t="n">
+        <v>26.50161</v>
+      </c>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>33.77556</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.7332</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>7.58714</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>42.0959</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.8464</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15.65231</v>
+      </c>
       <c r="AD3" t="n">
-        <v>109.1</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
+        <v>343.07136</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.20384</v>
+      </c>
       <c r="AF3" t="n">
-        <v>0.6304</v>
+        <v>7.12547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.48426</v>
+      </c>
+      <c r="C4" t="n">
+        <v>51.5776</v>
+      </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>31.53259</v>
+      </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0.06808</v>
+      </c>
       <c r="H4" t="n">
-        <v>3.7577</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>4.80944</v>
+      </c>
+      <c r="I4" t="n">
+        <v>98.08557999999999</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>0.88001</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>240.57748</v>
+      </c>
+      <c r="N4" t="n">
+        <v>188.51562</v>
+      </c>
       <c r="O4" t="n">
-        <v>92.4487</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>275.92025</v>
+      </c>
+      <c r="P4" t="n">
+        <v>31.53259</v>
+      </c>
       <c r="Q4" t="n">
-        <v>52.6923</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+        <v>95.12014000000001</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.02008</v>
+      </c>
+      <c r="S4" t="n">
+        <v>14.1431</v>
+      </c>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>49.81324</v>
+      </c>
+      <c r="V4" t="n">
+        <v>34.65006</v>
+      </c>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>37.66853</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.35734</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>5.96226</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>44.98813</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.05342</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>19.33849</v>
+      </c>
       <c r="AD4" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="AE4" t="inlineStr"/>
+        <v>388.4763</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.22486</v>
+      </c>
       <c r="AF4" t="n">
-        <v>3.125</v>
+        <v>12.62647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>52.4252</v>
+      </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>35.1374</v>
+      </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0.0433</v>
+      </c>
       <c r="H5" t="n">
-        <v>4.076</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>5.2943</v>
+      </c>
+      <c r="I5" t="n">
+        <v>97.9764</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1.0502</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2888</v>
+      </c>
+      <c r="M5" t="n">
+        <v>250.277</v>
+      </c>
+      <c r="N5" t="n">
+        <v>197.563</v>
+      </c>
       <c r="O5" t="n">
-        <v>116.0897</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
+        <v>278.7806</v>
+      </c>
+      <c r="P5" t="n">
+        <v>35.1374</v>
+      </c>
       <c r="Q5" t="n">
-        <v>47.0137</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+        <v>100.9223</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="S5" t="n">
+        <v>12.2264</v>
+      </c>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>52.4677</v>
+      </c>
+      <c r="V5" t="n">
+        <v>39.2912</v>
+      </c>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>39.5121</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.1748</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3.6458</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>46.3327</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.1185</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>14.5198</v>
+      </c>
       <c r="AD5" t="n">
-        <v>168.8015</v>
-      </c>
-      <c r="AE5" t="inlineStr"/>
+        <v>400.7211</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.7746</v>
+      </c>
       <c r="AF5" t="n">
-        <v>1.6221</v>
+        <v>15.724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>53.7422</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4457</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40.6396</v>
+      </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0.0449</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.0894</v>
+      </c>
+      <c r="I6" t="n">
+        <v>109.4862</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0.9709</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1685</v>
+      </c>
+      <c r="M6" t="n">
+        <v>246.6364</v>
+      </c>
+      <c r="N6" t="n">
+        <v>192.28</v>
+      </c>
+      <c r="O6" t="n">
+        <v>278.0613</v>
+      </c>
+      <c r="P6" t="n">
+        <v>40.6396</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>108.9328</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.8376</v>
+      </c>
+      <c r="S6" t="n">
+        <v>13.2859</v>
+      </c>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>57.7544</v>
+      </c>
+      <c r="V6" t="n">
+        <v>43.6309</v>
+      </c>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>42.3808</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>5.4585</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3.9389</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>51.7782</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.09130000000000001</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>15.2999</v>
+      </c>
       <c r="AD6" t="n">
-        <v>192.51738</v>
-      </c>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
+        <v>413.8769</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.6613</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>20.7934</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>52.4303</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4046</v>
+      </c>
+      <c r="E7" t="n">
+        <v>63.4068</v>
+      </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0.0331</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.6501</v>
+      </c>
+      <c r="I7" t="n">
+        <v>149.7352</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2755</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9623</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0542</v>
+      </c>
+      <c r="M7" t="n">
+        <v>256.3169</v>
+      </c>
+      <c r="N7" t="n">
+        <v>203.4279</v>
+      </c>
+      <c r="O7" t="n">
+        <v>306.0823</v>
+      </c>
+      <c r="P7" t="n">
+        <v>63.6823</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>130.6412</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.9798</v>
+      </c>
+      <c r="S7" t="n">
+        <v>12.922</v>
+      </c>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>56.4431</v>
+      </c>
+      <c r="V7" t="n">
+        <v>42.5414</v>
+      </c>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>41.0904</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.1088</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2.1806</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>45.3799</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.09180000000000001</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>39.0034</v>
+      </c>
       <c r="AD7" t="n">
-        <v>239.8409</v>
-      </c>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
+        <v>462.4952</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.5824</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>20.1216</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>42.5156</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E8" t="n">
+        <v>66.81</v>
+      </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.0075</v>
+      </c>
+      <c r="I8" t="n">
+        <v>159.2089</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2196</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.6123</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>256.4903</v>
+      </c>
+      <c r="N8" t="n">
+        <v>213.7527</v>
+      </c>
+      <c r="O8" t="n">
+        <v>326.2254</v>
+      </c>
+      <c r="P8" t="n">
+        <v>67.0295</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>136.9461</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.0961</v>
+      </c>
+      <c r="S8" t="n">
+        <v>28.9648</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0898</v>
+      </c>
+      <c r="U8" t="n">
+        <v>78.40479999999999</v>
+      </c>
+      <c r="V8" t="n">
+        <v>48.2541</v>
+      </c>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>46.2866</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.1673</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.3169</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>47.7708</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>42.0496</v>
+      </c>
       <c r="AD8" t="n">
-        <v>298.7571</v>
-      </c>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
+        <v>494.1</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.6477000000000001</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>24.925</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.43831</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>44.9607</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>43.8965</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2252</v>
+      </c>
       <c r="E9" t="n">
-        <v>27.26523</v>
+        <v>48.2991</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>1.10557</v>
+        <v>0.0247</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6828</v>
+        <v>5.2575</v>
       </c>
       <c r="I9" t="n">
-        <v>88.23851999999999</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>118.0343</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1642</v>
+      </c>
       <c r="K9" t="n">
-        <v>0.06927</v>
+        <v>1.7576</v>
       </c>
       <c r="L9" t="n">
-        <v>8.960599999999999</v>
+        <v>8.822699999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>207.57376</v>
+        <v>252.6011</v>
       </c>
       <c r="N9" t="n">
-        <v>153.21415</v>
+        <v>199.6567</v>
       </c>
       <c r="O9" t="n">
-        <v>237.74917</v>
+        <v>341.0904</v>
       </c>
       <c r="P9" t="n">
-        <v>27.26523</v>
+        <v>48.4634</v>
       </c>
       <c r="Q9" t="n">
-        <v>93.51392</v>
+        <v>105.9114</v>
       </c>
       <c r="R9" t="n">
-        <v>1.1313</v>
+        <v>1.3499</v>
       </c>
       <c r="S9" t="n">
-        <v>19.62617</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
+        <v>31.7331</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.0737</v>
+      </c>
       <c r="U9" t="n">
-        <v>47.25908</v>
+        <v>118.8222</v>
       </c>
       <c r="V9" t="n">
-        <v>26.50161</v>
+        <v>85.66549999999999</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>33.77556</v>
+        <v>43.4965</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7332</v>
+        <v>1.0525</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.58714</v>
+        <v>0.273</v>
       </c>
       <c r="AA9" t="n">
-        <v>42.0959</v>
+        <v>44.8219</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.8464</v>
+        <v>0.0425</v>
       </c>
       <c r="AC9" t="n">
-        <v>15.65231</v>
+        <v>22.351</v>
       </c>
       <c r="AD9" t="n">
-        <v>343.07136</v>
+        <v>489.4576</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.20384</v>
+        <v>0.5733</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.12547</v>
+        <v>37.1983</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.48426</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>51.5776</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>45.3756</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5669999999999999</v>
+      </c>
       <c r="E10" t="n">
-        <v>31.53259</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>39.1878</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0483</v>
+      </c>
       <c r="G10" t="n">
-        <v>0.06808</v>
+        <v>0.02</v>
       </c>
       <c r="H10" t="n">
-        <v>4.80944</v>
+        <v>2.7749</v>
       </c>
       <c r="I10" t="n">
-        <v>98.08557999999999</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>114.1055</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.065</v>
+      </c>
       <c r="K10" t="n">
-        <v>0.88001</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>1.9177</v>
+      </c>
+      <c r="L10" t="n">
+        <v>11.9399</v>
+      </c>
       <c r="M10" t="n">
-        <v>240.57748</v>
+        <v>243.8702</v>
       </c>
       <c r="N10" t="n">
-        <v>188.51562</v>
+        <v>185.9878</v>
       </c>
       <c r="O10" t="n">
-        <v>275.92025</v>
+        <v>341.0285</v>
       </c>
       <c r="P10" t="n">
-        <v>31.53259</v>
+        <v>39.2528</v>
       </c>
       <c r="Q10" t="n">
-        <v>95.12014000000001</v>
+        <v>112.6811</v>
       </c>
       <c r="R10" t="n">
-        <v>1.02008</v>
+        <v>1.2683</v>
       </c>
       <c r="S10" t="n">
-        <v>14.1431</v>
-      </c>
-      <c r="T10" t="inlineStr"/>
+        <v>39.3125</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4755</v>
+      </c>
       <c r="U10" t="n">
-        <v>49.81324</v>
+        <v>146.1167</v>
       </c>
       <c r="V10" t="n">
-        <v>34.65006</v>
+        <v>105.0122</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>37.66853</v>
+        <v>46.849</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.35734</v>
+        <v>0.1143</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.96226</v>
+        <v>0.192</v>
       </c>
       <c r="AA10" t="n">
-        <v>44.98813</v>
+        <v>47.1553</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.05342</v>
+        <v>0.035</v>
       </c>
       <c r="AC10" t="n">
-        <v>19.33849</v>
+        <v>25.241</v>
       </c>
       <c r="AD10" t="n">
-        <v>388.4763</v>
+        <v>504.09</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.22486</v>
+        <v>0.4836</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.62647</v>
+        <v>47.6079</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>52.4252</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>48.0565</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6489</v>
+      </c>
       <c r="E11" t="n">
-        <v>35.1374</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>49.9636</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0648</v>
+      </c>
       <c r="G11" t="n">
-        <v>0.0433</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2943</v>
+        <v>3.6469</v>
       </c>
       <c r="I11" t="n">
-        <v>97.9764</v>
+        <v>128.0609</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>1.0502</v>
+        <v>1.8755</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2888</v>
+        <v>19.8067</v>
       </c>
       <c r="M11" t="n">
-        <v>250.277</v>
+        <v>274.9066</v>
       </c>
       <c r="N11" t="n">
-        <v>197.563</v>
+        <v>206.3945</v>
       </c>
       <c r="O11" t="n">
-        <v>278.7806</v>
+        <v>367.6864</v>
       </c>
       <c r="P11" t="n">
-        <v>35.1374</v>
+        <v>49.9636</v>
       </c>
       <c r="Q11" t="n">
-        <v>100.9223</v>
+        <v>128.0491</v>
       </c>
       <c r="R11" t="n">
-        <v>0.95</v>
+        <v>1.3912</v>
       </c>
       <c r="S11" t="n">
-        <v>12.2264</v>
-      </c>
-      <c r="T11" t="inlineStr"/>
+        <v>44.2497</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.2791</v>
+      </c>
       <c r="U11" t="n">
-        <v>52.4677</v>
+        <v>160.6599</v>
       </c>
       <c r="V11" t="n">
-        <v>39.2912</v>
+        <v>114.6751</v>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>39.5121</v>
+        <v>53.4048</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.1748</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.6458</v>
+        <v>0.1402</v>
       </c>
       <c r="AA11" t="n">
-        <v>46.3327</v>
+        <v>53.6319</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.1185</v>
+        <v>0.0605</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.5198</v>
+        <v>21.9937</v>
       </c>
       <c r="AD11" t="n">
-        <v>400.7211</v>
+        <v>563.6274</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.7746</v>
+        <v>0.4517</v>
       </c>
       <c r="AF11" t="n">
-        <v>15.724</v>
+        <v>64.245</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>53.7422</v>
+        <v>48.5906</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4457</v>
+        <v>0.8944</v>
       </c>
       <c r="E12" t="n">
-        <v>40.6396</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>47.8618</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.049</v>
+      </c>
       <c r="G12" t="n">
-        <v>0.0449</v>
+        <v>0.0415</v>
       </c>
       <c r="H12" t="n">
-        <v>6.0894</v>
+        <v>2.2727</v>
       </c>
       <c r="I12" t="n">
-        <v>109.4862</v>
+        <v>121.5136</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>0.9709</v>
+        <v>1.7794</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1685</v>
+        <v>22.1157</v>
       </c>
       <c r="M12" t="n">
-        <v>246.6364</v>
+        <v>227.4054</v>
       </c>
       <c r="N12" t="n">
-        <v>192.28</v>
+        <v>155.8047</v>
       </c>
       <c r="O12" t="n">
-        <v>278.0613</v>
+        <v>283.6303</v>
       </c>
       <c r="P12" t="n">
-        <v>40.6396</v>
+        <v>47.8618</v>
       </c>
       <c r="Q12" t="n">
-        <v>108.9328</v>
+        <v>118.4362</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8376</v>
+        <v>1.6927</v>
       </c>
       <c r="S12" t="n">
-        <v>13.2859</v>
-      </c>
-      <c r="T12" t="inlineStr"/>
+        <v>26.0894</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.1064</v>
+      </c>
       <c r="U12" t="n">
-        <v>57.7544</v>
+        <v>115.935</v>
       </c>
       <c r="V12" t="n">
-        <v>43.6309</v>
+        <v>87.99760000000001</v>
       </c>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="n">
-        <v>42.3808</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>5.4585</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>3.9389</v>
-      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>51.7782</v>
+        <v>50.6342</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.09130000000000001</v>
+        <v>0.0323</v>
       </c>
       <c r="AC12" t="n">
-        <v>15.2999</v>
+        <v>20.548</v>
       </c>
       <c r="AD12" t="n">
-        <v>413.8769</v>
+        <v>464.854</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.6613</v>
+        <v>0.3624</v>
       </c>
       <c r="AF12" t="n">
-        <v>20.7934</v>
+        <v>60.2608</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>52.4303</v>
+        <v>50.5929</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4046</v>
+        <v>0.2355</v>
       </c>
       <c r="E13" t="n">
-        <v>63.4068</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>46.1039</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.08550000000000001</v>
+      </c>
       <c r="G13" t="n">
-        <v>0.0331</v>
+        <v>0.0575</v>
       </c>
       <c r="H13" t="n">
-        <v>5.6501</v>
+        <v>57.421</v>
       </c>
       <c r="I13" t="n">
-        <v>149.7352</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.2755</v>
-      </c>
+        <v>217.3584</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>0.9623</v>
+        <v>1.5553</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0542</v>
+        <v>12.998</v>
       </c>
       <c r="M13" t="n">
-        <v>256.3169</v>
+        <v>235.4227</v>
       </c>
       <c r="N13" t="n">
-        <v>203.4279</v>
+        <v>171.5963</v>
       </c>
       <c r="O13" t="n">
-        <v>306.0823</v>
+        <v>312.7773</v>
       </c>
       <c r="P13" t="n">
-        <v>63.6823</v>
+        <v>46.1039</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.6412</v>
+        <v>131.0269</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9798</v>
+        <v>1.8867</v>
       </c>
       <c r="S13" t="n">
-        <v>12.922</v>
-      </c>
-      <c r="T13" t="inlineStr"/>
+        <v>28.5627</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.1078</v>
+      </c>
       <c r="U13" t="n">
-        <v>56.4431</v>
+        <v>136.138</v>
       </c>
       <c r="V13" t="n">
-        <v>42.5414</v>
+        <v>105.4954</v>
       </c>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="n">
-        <v>41.0904</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>2.1088</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2.1806</v>
-      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>45.3799</v>
+        <v>143.7295</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.09180000000000001</v>
+        <v>0.044</v>
       </c>
       <c r="AC13" t="n">
-        <v>39.0034</v>
+        <v>25.0445</v>
       </c>
       <c r="AD13" t="n">
-        <v>462.4952</v>
+        <v>588.9191</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.5824</v>
+        <v>0.3753</v>
       </c>
       <c r="AF13" t="n">
-        <v>20.1216</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>42.5156</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="E14" t="n">
-        <v>66.81</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6.0075</v>
-      </c>
-      <c r="I14" t="n">
-        <v>159.2089</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.2196</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.6123</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>256.4903</v>
-      </c>
-      <c r="N14" t="n">
-        <v>213.7527</v>
-      </c>
-      <c r="O14" t="n">
-        <v>326.2254</v>
-      </c>
-      <c r="P14" t="n">
-        <v>67.0295</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>136.9461</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.0961</v>
-      </c>
-      <c r="S14" t="n">
-        <v>28.9648</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.0898</v>
-      </c>
-      <c r="U14" t="n">
-        <v>78.40479999999999</v>
-      </c>
-      <c r="V14" t="n">
-        <v>48.2541</v>
-      </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="n">
-        <v>46.2866</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.1673</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.3169</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>47.7708</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>42.0496</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.6477000000000001</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>24.925</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>43.8965</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.2252</v>
-      </c>
-      <c r="E15" t="n">
-        <v>48.2991</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>0.0247</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5.2575</v>
-      </c>
-      <c r="I15" t="n">
-        <v>118.0343</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.1642</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.7576</v>
-      </c>
-      <c r="L15" t="n">
-        <v>8.822699999999999</v>
-      </c>
-      <c r="M15" t="n">
-        <v>252.6011</v>
-      </c>
-      <c r="N15" t="n">
-        <v>199.6567</v>
-      </c>
-      <c r="O15" t="n">
-        <v>341.0904</v>
-      </c>
-      <c r="P15" t="n">
-        <v>48.4634</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>105.9114</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.3499</v>
-      </c>
-      <c r="S15" t="n">
-        <v>31.7331</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.0737</v>
-      </c>
-      <c r="U15" t="n">
-        <v>118.8222</v>
-      </c>
-      <c r="V15" t="n">
-        <v>85.66549999999999</v>
-      </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
-        <v>43.4965</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.0525</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>44.8219</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.0425</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>22.351</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>489.4576</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.5733</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>37.1983</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>45.3756</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="E16" t="n">
-        <v>39.1878</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0483</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.7749</v>
-      </c>
-      <c r="I16" t="n">
-        <v>114.1055</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.9177</v>
-      </c>
-      <c r="L16" t="n">
-        <v>11.9399</v>
-      </c>
-      <c r="M16" t="n">
-        <v>243.8702</v>
-      </c>
-      <c r="N16" t="n">
-        <v>185.9878</v>
-      </c>
-      <c r="O16" t="n">
-        <v>341.0285</v>
-      </c>
-      <c r="P16" t="n">
-        <v>39.2528</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>112.6811</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.2683</v>
-      </c>
-      <c r="S16" t="n">
-        <v>39.3125</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.4755</v>
-      </c>
-      <c r="U16" t="n">
-        <v>146.1167</v>
-      </c>
-      <c r="V16" t="n">
-        <v>105.0122</v>
-      </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="n">
-        <v>46.849</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.1143</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>47.1553</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>25.241</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>504.09</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.4836</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>47.6079</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>48.0565</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.6489</v>
-      </c>
-      <c r="E17" t="n">
-        <v>49.9636</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0648</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.6469</v>
-      </c>
-      <c r="I17" t="n">
-        <v>128.0609</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>1.8755</v>
-      </c>
-      <c r="L17" t="n">
-        <v>19.8067</v>
-      </c>
-      <c r="M17" t="n">
-        <v>274.9066</v>
-      </c>
-      <c r="N17" t="n">
-        <v>206.3945</v>
-      </c>
-      <c r="O17" t="n">
-        <v>367.6864</v>
-      </c>
-      <c r="P17" t="n">
-        <v>49.9636</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>128.0491</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.3912</v>
-      </c>
-      <c r="S17" t="n">
-        <v>44.2497</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.2791</v>
-      </c>
-      <c r="U17" t="n">
-        <v>160.6599</v>
-      </c>
-      <c r="V17" t="n">
-        <v>114.6751</v>
-      </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="n">
-        <v>53.4048</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.08690000000000001</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.1402</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>53.6319</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.0605</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>21.9937</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>563.6274</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.4517</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>64.245</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>48.5906</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.8944</v>
-      </c>
-      <c r="E18" t="n">
-        <v>47.8618</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0415</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.2727</v>
-      </c>
-      <c r="I18" t="n">
-        <v>121.5136</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>1.7794</v>
-      </c>
-      <c r="L18" t="n">
-        <v>22.1157</v>
-      </c>
-      <c r="M18" t="n">
-        <v>227.4054</v>
-      </c>
-      <c r="N18" t="n">
-        <v>155.8047</v>
-      </c>
-      <c r="O18" t="n">
-        <v>283.6303</v>
-      </c>
-      <c r="P18" t="n">
-        <v>47.8618</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>118.4362</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.6927</v>
-      </c>
-      <c r="S18" t="n">
-        <v>26.0894</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.1064</v>
-      </c>
-      <c r="U18" t="n">
-        <v>115.935</v>
-      </c>
-      <c r="V18" t="n">
-        <v>87.99760000000001</v>
-      </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>50.6342</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0.0323</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>20.548</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>464.854</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.3624</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>60.2608</v>
+        <v>87.2454</v>
       </c>
     </row>
   </sheetData>
